--- a/biology/Zoologie/Charançon_du_noyau_de_la_mangue/Charançon_du_noyau_de_la_mangue.xlsx
+++ b/biology/Zoologie/Charançon_du_noyau_de_la_mangue/Charançon_du_noyau_de_la_mangue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_noyau_de_la_mangue</t>
+          <t>Charançon_du_noyau_de_la_mangue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sternochetus mangiferae
 Le charançon du noyau de la mangue, dit aussi charançon de la graine du manguier ou charançon de la mangue (Sternochetus mangiferae) est une espèce d'insectes coléoptères de la famille des Curculionidae, à répartition pantropicale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_noyau_de_la_mangue</t>
+          <t>Charançon_du_noyau_de_la_mangue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon OEPP[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon OEPP :
 Curculio mangiferae Fabricius
 Rhynchaenus mangiferae (Fabricius)
 Cryptorhynchus mangiferae (Fabricius)
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_noyau_de_la_mangue</t>
+          <t>Charançon_du_noyau_de_la_mangue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
